--- a/data/zenodo_ivan/extraction/CHE_ext_fueloil.xlsx
+++ b/data/zenodo_ivan/extraction/CHE_ext_fueloil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A1E749-33B2-0644-A3F9-7673F70E6040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9A83C4-4D49-1C45-8EE3-C5083B78C5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>proven_reserves</t>
   </si>
   <si>
-    <t>cost_variable</t>
-  </si>
-  <si>
     <t>fueloil</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>cost_variable_om</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -659,16 +659,16 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -680,7 +680,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
@@ -695,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
@@ -710,10 +710,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -725,13 +725,13 @@
         <v>7.456037781</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -739,10 +739,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -754,13 +754,13 @@
         <v>7.6108344130000001</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -768,10 +768,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -783,13 +783,13 @@
         <v>6.5014585489999996</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -797,10 +797,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -812,13 +812,13 @@
         <v>6.0628680920000004</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -826,10 +826,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -841,13 +841,13 @@
         <v>5.030890544</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -855,10 +855,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -870,13 +870,13 @@
         <v>4.4891023319999999</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -884,10 +884,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -899,13 +899,13 @@
         <v>5.9854697750000003</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -913,10 +913,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -928,13 +928,13 @@
         <v>6.7336534969999997</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -942,10 +942,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -957,13 +957,13 @@
         <v>4.979291667</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -971,10 +971,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -986,13 +986,13 @@
         <v>5.9596703370000004</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1000,10 +1000,10 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -1015,13 +1015,13 @@
         <v>10.91316256</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1029,10 +1029,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -1044,13 +1044,13 @@
         <v>9.777987263</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1058,10 +1058,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1073,13 +1073,13 @@
         <v>8.3590181349999995</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1087,10 +1087,10 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1102,13 +1102,13 @@
         <v>9.2103996109999997</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1116,10 +1116,10 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -1131,13 +1131,13 @@
         <v>10.96476144</v>
       </c>
       <c r="H24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1145,10 +1145,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -1160,13 +1160,13 @@
         <v>15.608660410000001</v>
       </c>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1174,10 +1174,10 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -1189,13 +1189,13 @@
         <v>17.646816059999999</v>
       </c>
       <c r="H26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1203,10 +1203,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -1218,13 +1218,13 @@
         <v>17.492019429999999</v>
       </c>
       <c r="H27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1232,10 +1232,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -1247,13 +1247,13 @@
         <v>23.271093700000002</v>
       </c>
       <c r="H28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1261,10 +1261,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -1276,13 +1276,13 @@
         <v>14.21549072</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1290,10 +1290,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -1305,13 +1305,13 @@
         <v>18.36920035</v>
       </c>
       <c r="H30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1319,10 +1319,10 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -1334,13 +1334,13 @@
         <v>21.619929620000001</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1348,10 +1348,10 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -1363,13 +1363,13 @@
         <v>23.322692570000001</v>
       </c>
       <c r="H32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1377,10 +1377,10 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -1392,13 +1392,13 @@
         <v>22.445511660000001</v>
       </c>
       <c r="H33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1406,10 +1406,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -1421,13 +1421,13 @@
         <v>22.884102120000001</v>
       </c>
       <c r="H34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1435,10 +1435,10 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -1450,13 +1450,13 @@
         <v>17.543618309999999</v>
       </c>
       <c r="H35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1464,10 +1464,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -1479,13 +1479,13 @@
         <v>16.692236829999999</v>
       </c>
       <c r="H36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1493,10 +1493,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -1508,13 +1508,13 @@
         <v>18.85938968</v>
       </c>
       <c r="H37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1522,10 +1522,10 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -1537,13 +1537,13 @@
         <v>23.013099310000001</v>
       </c>
       <c r="H38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -1551,10 +1551,10 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -1566,13 +1566,13 @@
         <v>22.006921200000001</v>
       </c>
       <c r="H39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="11:11" x14ac:dyDescent="0.2">

--- a/data/zenodo_ivan/extraction/CHE_ext_fueloil.xlsx
+++ b/data/zenodo_ivan/extraction/CHE_ext_fueloil.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9A83C4-4D49-1C45-8EE3-C5083B78C5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC3DE36-A827-8140-BB0D-BC61E65D5437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$572</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$573</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="36">
   <si>
     <t>Name:</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>cost_variable_om</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -556,11 +562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C39"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -662,10 +668,10 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -682,11 +688,17 @@
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -698,7 +710,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -712,27 +724,13 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1990</v>
-      </c>
-      <c r="G10">
-        <v>7.456037781</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -748,10 +746,10 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G11">
-        <v>7.6108344130000001</v>
+        <v>7.456037781</v>
       </c>
       <c r="H11" t="s">
         <v>28</v>
@@ -777,10 +775,10 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G12">
-        <v>6.5014585489999996</v>
+        <v>7.6108344130000001</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -806,10 +804,10 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G13">
-        <v>6.0628680920000004</v>
+        <v>6.5014585489999996</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
@@ -835,10 +833,10 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G14">
-        <v>5.030890544</v>
+        <v>6.0628680920000004</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
@@ -864,10 +862,10 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G15">
-        <v>4.4891023319999999</v>
+        <v>5.030890544</v>
       </c>
       <c r="H15" t="s">
         <v>28</v>
@@ -893,10 +891,10 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G16">
-        <v>5.9854697750000003</v>
+        <v>4.4891023319999999</v>
       </c>
       <c r="H16" t="s">
         <v>28</v>
@@ -922,10 +920,10 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G17">
-        <v>6.7336534969999997</v>
+        <v>5.9854697750000003</v>
       </c>
       <c r="H17" t="s">
         <v>28</v>
@@ -951,10 +949,10 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G18">
-        <v>4.979291667</v>
+        <v>6.7336534969999997</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
@@ -980,10 +978,10 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G19">
-        <v>5.9596703370000004</v>
+        <v>4.979291667</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -1009,10 +1007,10 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G20">
-        <v>10.91316256</v>
+        <v>5.9596703370000004</v>
       </c>
       <c r="H20" t="s">
         <v>28</v>
@@ -1038,10 +1036,10 @@
         <v>22</v>
       </c>
       <c r="E21">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G21">
-        <v>9.777987263</v>
+        <v>10.91316256</v>
       </c>
       <c r="H21" t="s">
         <v>28</v>
@@ -1067,10 +1065,10 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G22">
-        <v>8.3590181349999995</v>
+        <v>9.777987263</v>
       </c>
       <c r="H22" t="s">
         <v>28</v>
@@ -1096,10 +1094,10 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G23">
-        <v>9.2103996109999997</v>
+        <v>8.3590181349999995</v>
       </c>
       <c r="H23" t="s">
         <v>28</v>
@@ -1125,10 +1123,10 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G24">
-        <v>10.96476144</v>
+        <v>9.2103996109999997</v>
       </c>
       <c r="H24" t="s">
         <v>28</v>
@@ -1154,10 +1152,10 @@
         <v>22</v>
       </c>
       <c r="E25">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G25">
-        <v>15.608660410000001</v>
+        <v>10.96476144</v>
       </c>
       <c r="H25" t="s">
         <v>28</v>
@@ -1183,10 +1181,10 @@
         <v>22</v>
       </c>
       <c r="E26">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G26">
-        <v>17.646816059999999</v>
+        <v>15.608660410000001</v>
       </c>
       <c r="H26" t="s">
         <v>28</v>
@@ -1212,10 +1210,10 @@
         <v>22</v>
       </c>
       <c r="E27">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G27">
-        <v>17.492019429999999</v>
+        <v>17.646816059999999</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
@@ -1241,10 +1239,10 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G28">
-        <v>23.271093700000002</v>
+        <v>17.492019429999999</v>
       </c>
       <c r="H28" t="s">
         <v>28</v>
@@ -1270,10 +1268,10 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G29">
-        <v>14.21549072</v>
+        <v>23.271093700000002</v>
       </c>
       <c r="H29" t="s">
         <v>28</v>
@@ -1299,10 +1297,10 @@
         <v>22</v>
       </c>
       <c r="E30">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G30">
-        <v>18.36920035</v>
+        <v>14.21549072</v>
       </c>
       <c r="H30" t="s">
         <v>28</v>
@@ -1328,10 +1326,10 @@
         <v>22</v>
       </c>
       <c r="E31">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G31">
-        <v>21.619929620000001</v>
+        <v>18.36920035</v>
       </c>
       <c r="H31" t="s">
         <v>28</v>
@@ -1357,10 +1355,10 @@
         <v>22</v>
       </c>
       <c r="E32">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G32">
-        <v>23.322692570000001</v>
+        <v>21.619929620000001</v>
       </c>
       <c r="H32" t="s">
         <v>28</v>
@@ -1386,10 +1384,10 @@
         <v>22</v>
       </c>
       <c r="E33">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G33">
-        <v>22.445511660000001</v>
+        <v>23.322692570000001</v>
       </c>
       <c r="H33" t="s">
         <v>28</v>
@@ -1415,10 +1413,10 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G34">
-        <v>22.884102120000001</v>
+        <v>22.445511660000001</v>
       </c>
       <c r="H34" t="s">
         <v>28</v>
@@ -1444,10 +1442,10 @@
         <v>22</v>
       </c>
       <c r="E35">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G35">
-        <v>17.543618309999999</v>
+        <v>22.884102120000001</v>
       </c>
       <c r="H35" t="s">
         <v>28</v>
@@ -1473,10 +1471,10 @@
         <v>22</v>
       </c>
       <c r="E36">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G36">
-        <v>16.692236829999999</v>
+        <v>17.543618309999999</v>
       </c>
       <c r="H36" t="s">
         <v>28</v>
@@ -1502,10 +1500,10 @@
         <v>22</v>
       </c>
       <c r="E37">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G37">
-        <v>18.85938968</v>
+        <v>16.692236829999999</v>
       </c>
       <c r="H37" t="s">
         <v>28</v>
@@ -1531,10 +1529,10 @@
         <v>22</v>
       </c>
       <c r="E38">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G38">
-        <v>23.013099310000001</v>
+        <v>18.85938968</v>
       </c>
       <c r="H38" t="s">
         <v>28</v>
@@ -1560,26 +1558,55 @@
         <v>22</v>
       </c>
       <c r="E39">
+        <v>2018</v>
+      </c>
+      <c r="G39">
+        <v>23.013099310000001</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40">
         <v>2019</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>22.006921200000001</v>
       </c>
-      <c r="H39" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K152" s="2"/>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K153" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L572" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L573" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
